--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/valid/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/valid/CCD_BEFTA_JURISDICTION3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/ccd-definition-store-api/aat/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18344DFC-C14E-9F42-8201-CBA48648BCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F1DA8-3872-4342-B7A1-C7F04BFCDD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="823" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="16420" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,20 @@
     <sheet name="ComplexTypes" sheetId="5" r:id="rId5"/>
     <sheet name="State" sheetId="6" r:id="rId6"/>
     <sheet name="CaseEvent" sheetId="7" r:id="rId7"/>
-    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId8"/>
-    <sheet name="CaseEventToFields" sheetId="8" r:id="rId9"/>
-    <sheet name="CaseTypeTab" sheetId="12" r:id="rId10"/>
-    <sheet name="SearchInputFields" sheetId="9" r:id="rId11"/>
-    <sheet name="SearchResultFields" sheetId="10" r:id="rId12"/>
-    <sheet name="WorkBasketInputFields" sheetId="17" r:id="rId13"/>
-    <sheet name="WorkBasketResultFields" sheetId="11" r:id="rId14"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId15"/>
-    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId16"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId17"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId18"/>
-    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId19"/>
-    <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId20"/>
+    <sheet name="CaseEventToFields" sheetId="8" r:id="rId8"/>
+    <sheet name="SearchInputFields" sheetId="9" r:id="rId9"/>
+    <sheet name="SearchResultFields" sheetId="10" r:id="rId10"/>
+    <sheet name="WorkBasketInputFields" sheetId="17" r:id="rId11"/>
+    <sheet name="WorkBasketResultFields" sheetId="11" r:id="rId12"/>
+    <sheet name="CaseTypeTab" sheetId="12" r:id="rId13"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId14"/>
+    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId15"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId16"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId17"/>
+    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
+    <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="343">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1086,6 +1085,9 @@
     <t>`Number` field</t>
   </si>
   <si>
+    <t>`YesOrNo` field</t>
+  </si>
+  <si>
     <t>A 'Label' field with last modified date as interpolation ${[LAST_STATE_MODIFIED_DATE]}</t>
   </si>
   <si>
@@ -1096,243 +1098,6 @@
   </si>
   <si>
     <t>1:DESC</t>
-  </si>
-  <si>
-    <t>DisplayContextParameter</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(yyyyMMdd)</t>
-  </si>
-  <si>
-    <t>Date Field</t>
-  </si>
-  <si>
-    <t>DateTime Field</t>
-  </si>
-  <si>
-    <t>[CASE_REFERENCE]</t>
-  </si>
-  <si>
-    <t>Case Reference</t>
-  </si>
-  <si>
-    <t>EventToComplexTypes</t>
-  </si>
-  <si>
-    <t>New Override label</t>
-  </si>
-  <si>
-    <t>new Override Hint Text</t>
-  </si>
-  <si>
-    <t>Order of fields</t>
-  </si>
-  <si>
-    <t>Always top level case field ID (from CaseField tab)</t>
-  </si>
-  <si>
-    <t>CaseFieldId</t>
-  </si>
-  <si>
-    <t>EventElementLabel</t>
-  </si>
-  <si>
-    <t>EventHintText</t>
-  </si>
-  <si>
-    <t>FieldDisplayOrder</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>StandardDate</t>
-  </si>
-  <si>
-    <t>StandardDateTime</t>
-  </si>
-  <si>
-    <t>CollectionDate</t>
-  </si>
-  <si>
-    <t>CollectionDateTime</t>
-  </si>
-  <si>
-    <t>yyyy-MM-DDTHH:mm formatted DateTime</t>
-  </si>
-  <si>
-    <t>Formatted Date in Collection</t>
-  </si>
-  <si>
-    <t>yyyy-MM-dd formatted collection DateTime</t>
-  </si>
-  <si>
-    <t>FormatComplex</t>
-  </si>
-  <si>
-    <t>ComplexDateTime</t>
-  </si>
-  <si>
-    <t>CollectionComplexDateTime</t>
-  </si>
-  <si>
-    <t>FormatNestedComplex</t>
-  </si>
-  <si>
-    <t>NestedComplex</t>
-  </si>
-  <si>
-    <t>Format Nested Complex</t>
-  </si>
-  <si>
-    <t>Formatted Date</t>
-  </si>
-  <si>
-    <t>Standard Date</t>
-  </si>
-  <si>
-    <t>Standard DateTime</t>
-  </si>
-  <si>
-    <t>Formatted DateTime</t>
-  </si>
-  <si>
-    <t>Date Collection</t>
-  </si>
-  <si>
-    <t>DateTime Collection</t>
-  </si>
-  <si>
-    <t>Complex DateTime</t>
-  </si>
-  <si>
-    <t>Collection Complex DateTime</t>
-  </si>
-  <si>
-    <t>yyyy-MM-ddTHH:mm formatted DateTime</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-MM-dd'T'HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yy-MM-dd)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(dd-MM-yy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(yyyy-MM-dd'T'HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(yy-MM-dd)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>Formatted Date in ComplexType</t>
-  </si>
-  <si>
-    <t>MM-yyyy formatted date field</t>
-  </si>
-  <si>
-    <t>MM-yyyy formatted collection date</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(MM-yyyy),#DATETIMEDISPLAY(MM-yyyy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(dd-MM-yyyy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-MM-dd),#DATETIMEDISPLAY(yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(MM-yyyy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(dd-MM-yyyy)</t>
-  </si>
-  <si>
-    <t>FormattedDateComplex</t>
-  </si>
-  <si>
-    <t>NestedComplex.DateField</t>
-  </si>
-  <si>
-    <t>NestedComplex.DateTimeField</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(yyyy-MM-dd'T'HH:mm:ss.SSS)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-MM-dd'T'HH:mm:ss)</t>
-  </si>
-  <si>
-    <t>COMPLEX</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(ddMMyy)</t>
-  </si>
-  <si>
-    <t>URL to call back to the service for uniqueness. </t>
-  </si>
-  <si>
-    <t>Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). </t>
-  </si>
-  <si>
-    <t>CallBackURLMidEvent</t>
-  </si>
-  <si>
-    <t>RetriesTimeoutURLMidEvent</t>
-  </si>
-  <si>
-    <t>LabelDateField</t>
-  </si>
-  <si>
-    <t>Formatted Date: ${DateField}</t>
-  </si>
-  <si>
-    <t>#TABLE(DateField)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(dd-MM),#DATETIMEDISPLAY(yyyy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(MM-dd'T'HH:mm),#DATETIMEDISPLAY(yyyy MM dd HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(dd)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(MM)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-MM)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(D MMM Y)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(YYYY MM D HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEDISPLAY(D MMM,  HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-mm-dd'T-'HH:mm)</t>
-  </si>
-  <si>
-    <t>#DATETIMEENTRY(yyyy-mm-dd)</t>
-  </si>
-  <si>
-    <t>[CREATED_DATE]</t>
-  </si>
-  <si>
-    <t>Created Date</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1109,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1623,72 +1388,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1807,7 +1506,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1928,37 +1627,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2294,7 +1962,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2386,1855 +2054,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    </row>
+    <row r="2" spans="1:7" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>51</v>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="D4" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="27"/>
+      <c r="E4" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="28">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="28">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="E12" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="28">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="E13" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="86">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="28">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="28">
-        <v>2</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="28">
-        <v>2</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="28">
-        <v>2</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="28">
-        <v>2</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="28">
-        <v>2</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="28">
-        <v>2</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="28">
-        <v>3</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I16" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="28">
-        <v>3</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="28">
-        <v>3</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="28">
-        <v>3</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="I19" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="28">
-        <v>4</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="28">
-        <v>1</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="28">
-        <v>1</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="28">
-        <v>2</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="28">
-        <v>2</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="28">
-        <v>2</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="28">
-        <v>2</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="28">
-        <v>2</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="28">
-        <v>2</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="I31" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="28">
-        <v>2</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="I32" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="28">
-        <v>3</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I33" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="28">
-        <v>3</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="28">
-        <v>3</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="I35" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="28">
-        <v>4</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="28">
-        <v>1</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="28">
-        <v>1</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="28">
-        <v>1</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="28">
-        <v>1</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G41" s="28">
-        <v>1</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="28">
-        <v>2</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="28">
-        <v>2</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I43" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="28">
-        <v>2</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I44" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G45" s="28">
-        <v>2</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" s="28">
-        <v>2</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G47" s="28">
-        <v>2</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G48" s="28">
-        <v>2</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="28">
-        <v>3</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I49" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="28">
-        <v>3</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I50" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="28">
-        <v>3</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="28">
-        <v>3</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G53" s="28">
-        <v>4</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I53" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" s="28">
-        <v>1</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G55" s="28">
-        <v>1</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" s="28">
-        <v>1</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="I56" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G57" s="28">
-        <v>1</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="28">
-        <v>1</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="I58" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="28">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I59" s="28">
-        <v>6</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G60" s="28">
-        <v>1</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="I60" s="28">
-        <v>7</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G61" s="28">
-        <v>1</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="I61" s="28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G62" s="28">
-        <v>1</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="I62" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G63" s="28">
-        <v>1</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="I63" s="28">
-        <v>10</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G64" s="28">
-        <v>1</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="I64" s="28">
-        <v>11</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G65" s="28">
-        <v>1</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="I65" s="28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G66" s="28">
-        <v>1</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="I66" s="28">
-        <v>13</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27">
-        <v>42736</v>
-      </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G67" s="28">
-        <v>2</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="28">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I4:I67 G4:G67" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F10" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A67" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A13" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B67" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4249,903 +2329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="G8" s="21">
-        <v>2</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" s="86">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="86">
-        <v>4</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="86">
-        <v>7</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="86">
-        <v>8</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G15" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="G16" s="86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G17" s="86">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>420</v>
-      </c>
-      <c r="G18" s="86">
-        <v>12</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G8" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A18" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>42736</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B18" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="86"/>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="G11" s="21">
-        <v>2</v>
-      </c>
-      <c r="H11" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>42736</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>42736</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="G13" s="86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" s="86">
-        <v>3</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" s="86">
-        <v>4</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G17" s="86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="86">
-        <v>7</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" s="86">
-        <v>8</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="G21" s="86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G22" s="86">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G11" xr:uid="{00000000-0002-0000-0900-000001000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B11" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A22" xr:uid="{00000000-0002-0000-0900-000002000000}">
-      <formula1>42736</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B14:B22" xr:uid="{301CB120-CDDE-4B4A-9B5E-08D771A35C6F}">
-      <formula1>IF((DATEDIF(A14,B14,"d")&gt;0),B14)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5156,11 +2344,10 @@
     <col min="4" max="4" width="19.83203125" style="70" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="70" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="14"/>
+    <col min="7" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>129</v>
       </c>
@@ -5176,7 +2363,7 @@
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="67" t="s">
@@ -5191,9 +2378,8 @@
       <c r="F2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
         <v>8</v>
       </c>
@@ -5212,11 +2398,8 @@
       <c r="F3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>42736</v>
       </c>
@@ -5234,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -5252,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>42736</v>
       </c>
@@ -5270,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -5288,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -5306,168 +2489,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" s="86">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="86">
-        <v>4</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="F13" s="86">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="86">
-        <v>8</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="F16" s="86">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B8" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F8" xr:uid="{00000000-0002-0000-0A00-000002000000}">
@@ -5478,7 +2505,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
@@ -5494,12 +2521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5507,15 +2534,13 @@
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="14"/>
-    <col min="9" max="9" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -5528,11 +2553,10 @@
       <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="30" t="s">
@@ -5541,16 +2565,14 @@
       <c r="D2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5563,23 +2585,17 @@
       <c r="D3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>42736</v>
       </c>
@@ -5590,15 +2606,14 @@
       <c r="D4" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>42736</v>
       </c>
@@ -5609,15 +2624,14 @@
       <c r="D5" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="21">
+      <c r="F5" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>42736</v>
       </c>
@@ -5628,15 +2642,14 @@
       <c r="D6" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>42736</v>
       </c>
@@ -5647,15 +2660,14 @@
       <c r="D7" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="21">
+      <c r="F7" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>42736</v>
       </c>
@@ -5666,15 +2678,14 @@
       <c r="D8" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>42736</v>
       </c>
@@ -5685,15 +2696,14 @@
       <c r="D9" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="21">
+      <c r="F9" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>42736</v>
       </c>
@@ -5702,43 +2712,36 @@
         <v>330</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="86"/>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>42736</v>
       </c>
-      <c r="B11" s="21"/>
       <c r="C11" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="D11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="86">
         <v>2</v>
       </c>
-      <c r="H11" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>42736</v>
       </c>
@@ -5746,17 +2749,16 @@
         <v>330</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="86">
+        <v>135</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="86">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>42736</v>
       </c>
@@ -5764,194 +2766,25 @@
         <v>330</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="G13" s="86">
+        <v>137</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="86">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" s="86">
-        <v>3</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" s="86">
-        <v>4</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G17" s="86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="86">
-        <v>7</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" s="86">
-        <v>8</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="G21" s="86">
-        <v>10</v>
-      </c>
-      <c r="I21" s="105"/>
-    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G11" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F10" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A21" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A13" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B11" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B14:B21" xr:uid="{F275DADB-6FC2-3A44-8F7B-B772AEE22188}">
-      <formula1>IF((DATEDIF(A14,B14,"d")&gt;0),B14)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5963,7 +2796,7 @@
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:E9</xm:sqref>
+          <xm:sqref>D4:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5974,7 +2807,1607 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="28">
+        <v>2</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="28">
+        <v>2</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="28">
+        <v>2</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="28">
+        <v>3</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="28">
+        <v>3</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="28">
+        <v>3</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="28">
+        <v>3</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="28">
+        <v>4</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="28">
+        <v>1</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="28">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="28">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="28">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="28">
+        <v>2</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="28">
+        <v>2</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="28">
+        <v>2</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="28">
+        <v>2</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="28">
+        <v>2</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="28">
+        <v>2</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="28">
+        <v>3</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="28">
+        <v>3</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="28">
+        <v>3</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I35" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="28">
+        <v>4</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="28">
+        <v>1</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="28">
+        <v>1</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="28">
+        <v>1</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="28">
+        <v>2</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="28">
+        <v>2</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="28">
+        <v>2</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="28">
+        <v>2</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="28">
+        <v>2</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="28">
+        <v>2</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="28">
+        <v>2</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="28">
+        <v>3</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="28">
+        <v>3</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I50" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="28">
+        <v>3</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I51" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="28">
+        <v>3</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="28">
+        <v>4</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="28">
+        <v>1</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" s="28">
+        <v>1</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="28">
+        <v>1</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I56" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="28">
+        <v>1</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="28">
+        <v>2</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I4:I58 G4:G58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+      <formula1>42736</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6103,12 +4536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6236,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -6534,12 +4967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:F68"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7768,12 +6201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7781,7 +6214,7 @@
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8762,166 +7195,13 @@
       <c r="C57" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>405</v>
+      <c r="D57" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>280</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F66" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8936,12 +7216,216 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9135,216 +7619,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="112" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10999,8 +9279,8 @@
       <c r="D56" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="E56" s="41" t="s">
-        <v>338</v>
+      <c r="E56" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
@@ -11053,14 +9333,16 @@
         <v>330</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="110" t="s">
-        <v>19</v>
+        <v>259</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" s="74" t="s">
+        <v>261</v>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="28" t="s">
@@ -11071,279 +9353,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G59" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G61" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="G62" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G63" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="G64" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G65" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G66" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="H66" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A67" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B67" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B58" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11362,7 +9377,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11603,10 +9618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11616,7 +9631,7 @@
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="24.83203125" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" style="14" customWidth="1"/>
@@ -11624,10 +9639,9 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -11648,7 +9662,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -11683,9 +9697,8 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -11728,11 +9741,8 @@
       <c r="N3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>42736</v>
       </c>
@@ -11762,7 +9772,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -11794,7 +9804,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>42736</v>
       </c>
@@ -11822,7 +9832,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -11852,7 +9862,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -11880,308 +9890,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>42736</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N29" s="14"/>
-    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A17" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B6:B8" xr:uid="{00000000-0002-0000-0400-000001000000}">
@@ -12202,7 +9913,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12523,8 +10234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15025,8 +12736,9 @@
       <c r="I70" s="41" t="s">
         <v>183</v>
       </c>
+      <c r="J70" s="29"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="106"/>
+      <c r="L70" s="29"/>
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
@@ -15149,7 +12861,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G73" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
@@ -15171,236 +12883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD8B349-A40E-654F-86C8-4C5749952C49}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="93" customWidth="1"/>
-    <col min="5" max="5" width="23" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.83203125" style="93" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="93"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>350</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="126" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="46"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" s="98" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>356</v>
-      </c>
-      <c r="J3" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="103" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="102">
-        <v>43101</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="103">
-        <v>1</v>
-      </c>
-      <c r="J4" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="103" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="102">
-        <v>43101</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="103">
-        <v>2</v>
-      </c>
-      <c r="J5" s="104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="102">
-        <v>43101</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>395</v>
-      </c>
-      <c r="I6" s="93">
-        <v>1</v>
-      </c>
-      <c r="J6" s="104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="102">
-        <v>43101</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" s="93" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="93">
-        <v>2</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S236"/>
-  <sheetViews>
-    <sheetView topLeftCell="H175" zoomScale="111" workbookViewId="0">
-      <selection activeCell="P190" sqref="P190"/>
+    <sheetView topLeftCell="C169" workbookViewId="0">
+      <selection activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15409,7 +12896,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="7" width="20.6640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" style="14" customWidth="1"/>
@@ -15419,10 +12906,9 @@
     <col min="13" max="13" width="28.6640625" customWidth="1"/>
     <col min="14" max="14" width="28.6640625" style="14" customWidth="1"/>
     <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -15443,7 +12929,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:18" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42" t="s">
@@ -15485,14 +12971,8 @@
       <c r="O2" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="108" t="s">
-        <v>401</v>
-      </c>
-      <c r="R2" s="108" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -15538,17 +13018,8 @@
       <c r="O3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q3" s="109" t="s">
-        <v>403</v>
-      </c>
-      <c r="R3" s="109" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>42736</v>
       </c>
@@ -15585,7 +13056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -15622,7 +13093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42736</v>
       </c>
@@ -15659,7 +13130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -15696,7 +13167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -15733,7 +13204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42736</v>
       </c>
@@ -15770,7 +13241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42736</v>
       </c>
@@ -15807,7 +13278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42736</v>
       </c>
@@ -15844,7 +13315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42736</v>
       </c>
@@ -15881,7 +13352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42736</v>
       </c>
@@ -15918,7 +13389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42736</v>
       </c>
@@ -15955,7 +13426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42736</v>
       </c>
@@ -15992,7 +13463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42736</v>
       </c>
@@ -21909,7 +19380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="13">
         <v>42736</v>
       </c>
@@ -21945,7 +19416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="13">
         <v>42736</v>
       </c>
@@ -21981,7 +19452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="13">
         <v>42736</v>
       </c>
@@ -22017,7 +19488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="13">
         <v>42736</v>
       </c>
@@ -22053,7 +19524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="13">
         <v>42736</v>
       </c>
@@ -22089,7 +19560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="13">
         <v>42736</v>
       </c>
@@ -22125,7 +19596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="13">
         <v>42736</v>
       </c>
@@ -22161,7 +19632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="13">
         <v>42736</v>
       </c>
@@ -22197,7 +19668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="13">
         <v>42736</v>
       </c>
@@ -22233,9 +19704,8 @@
       <c r="O185" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S185" s="107"/>
-    </row>
-    <row r="186" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="13">
         <v>42736</v>
       </c>
@@ -22272,7 +19742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="13">
         <v>42736</v>
       </c>
@@ -22309,7 +19779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="13">
         <v>42736</v>
       </c>
@@ -22346,7 +19816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="13">
         <v>42736</v>
       </c>
@@ -22355,13 +19825,13 @@
         <v>330</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F189" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G189" s="28"/>
       <c r="H189" s="41" t="s">
@@ -22382,11 +19852,8 @@
       <c r="O189" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="P189" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="13">
         <v>42736</v>
       </c>
@@ -22395,20 +19862,20 @@
         <v>330</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="F190" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G190" s="28"/>
       <c r="H190" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J190" s="24" t="s">
         <v>200</v>
@@ -22422,11 +19889,8 @@
       <c r="O190" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="P190" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="13">
         <v>42736</v>
       </c>
@@ -22435,13 +19899,13 @@
         <v>330</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E191" s="41" t="s">
-        <v>358</v>
+        <v>196</v>
+      </c>
+      <c r="E191" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F191" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G191" s="28"/>
       <c r="H191" s="41" t="s">
@@ -22463,7 +19927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="13">
         <v>42736</v>
       </c>
@@ -22472,13 +19936,13 @@
         <v>330</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E192" s="41" t="s">
-        <v>359</v>
+        <v>196</v>
+      </c>
+      <c r="E192" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F192" s="28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G192" s="28"/>
       <c r="H192" s="41" t="s">
@@ -22500,7 +19964,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="13">
         <v>42736</v>
       </c>
@@ -22509,13 +19973,13 @@
         <v>330</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E193" s="41" t="s">
-        <v>360</v>
+        <v>194</v>
+      </c>
+      <c r="E193" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F193" s="28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G193" s="28"/>
       <c r="H193" s="41" t="s">
@@ -22536,11 +20000,8 @@
       <c r="O193" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="P193" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="13">
         <v>42736</v>
       </c>
@@ -22549,20 +20010,20 @@
         <v>330</v>
       </c>
       <c r="D194" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E194" s="41" t="s">
-        <v>361</v>
+        <v>194</v>
+      </c>
+      <c r="E194" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="F194" s="28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G194" s="28"/>
       <c r="H194" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J194" s="24" t="s">
         <v>200</v>
@@ -22576,11 +20037,8 @@
       <c r="O194" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="P194" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="13">
         <v>42736</v>
       </c>
@@ -22589,13 +20047,13 @@
         <v>330</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E195" s="41" t="s">
-        <v>366</v>
+        <v>194</v>
+      </c>
+      <c r="E195" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F195" s="28">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G195" s="28"/>
       <c r="H195" s="41" t="s">
@@ -22617,7 +20075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="13">
         <v>42736</v>
       </c>
@@ -22626,13 +20084,13 @@
         <v>330</v>
       </c>
       <c r="D196" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E196" s="41" t="s">
-        <v>367</v>
+        <v>194</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F196" s="28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G196" s="28"/>
       <c r="H196" s="41" t="s">
@@ -22654,7 +20112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="13">
         <v>42736</v>
       </c>
@@ -22663,7 +20121,7 @@
         <v>330</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>133</v>
@@ -22691,7 +20149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="13">
         <v>42736</v>
       </c>
@@ -22700,7 +20158,7 @@
         <v>330</v>
       </c>
       <c r="D198" s="41" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>334</v>
@@ -22728,7 +20186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="199" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="13">
         <v>42736</v>
       </c>
@@ -22737,7 +20195,7 @@
         <v>330</v>
       </c>
       <c r="D199" s="41" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>135</v>
@@ -22765,7 +20223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13">
         <v>42736</v>
       </c>
@@ -22774,7 +20232,7 @@
         <v>330</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>137</v>
@@ -22802,1053 +20260,194 @@
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B201" s="13"/>
-      <c r="C201" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D201" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E201" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="F201" s="28">
-        <v>5</v>
-      </c>
-      <c r="G201" s="28"/>
-      <c r="H201" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I201" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="J201" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K201" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L201" s="14">
-        <v>1</v>
-      </c>
-      <c r="O201" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E202" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F202" s="28">
-        <v>6</v>
-      </c>
-      <c r="G202" s="28"/>
-      <c r="H202" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I202" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J202" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K202" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L202" s="14">
-        <v>1</v>
-      </c>
-      <c r="O202" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P202" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D203" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E203" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F203" s="28">
-        <v>7</v>
-      </c>
-      <c r="G203" s="28"/>
-      <c r="H203" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I203" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J203" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K203" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L203" s="14">
-        <v>1</v>
-      </c>
-      <c r="O203" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P203" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D204" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E204" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="F204" s="28">
-        <v>8</v>
-      </c>
-      <c r="G204" s="28"/>
-      <c r="H204" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I204" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J204" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K204" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L204" s="14">
-        <v>1</v>
-      </c>
-      <c r="O204" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D205" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E205" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="F205" s="28">
-        <v>9</v>
-      </c>
-      <c r="G205" s="28"/>
-      <c r="H205" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I205" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J205" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K205" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L205" s="14">
-        <v>1</v>
-      </c>
-      <c r="O205" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B206" s="13"/>
-      <c r="C206" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D206" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E206" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F206" s="28">
-        <v>10</v>
-      </c>
-      <c r="G206" s="28"/>
-      <c r="H206" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I206" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J206" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K206" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L206" s="14">
-        <v>1</v>
-      </c>
-      <c r="O206" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P206" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B207" s="13"/>
-      <c r="C207" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D207" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E207" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="F207" s="28">
-        <v>11</v>
-      </c>
-      <c r="G207" s="28"/>
-      <c r="H207" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I207" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J207" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K207" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L207" s="14">
-        <v>1</v>
-      </c>
-      <c r="O207" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P207" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D208" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E208" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F208" s="28">
-        <v>12</v>
-      </c>
-      <c r="G208" s="28"/>
-      <c r="H208" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I208" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J208" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K208" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L208" s="14">
-        <v>1</v>
-      </c>
-      <c r="O208" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D209" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E209" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F209" s="28">
-        <v>13</v>
-      </c>
-      <c r="G209" s="28"/>
-      <c r="H209" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I209" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J209" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K209" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L209" s="14">
-        <v>1</v>
-      </c>
-      <c r="O209" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D210" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E210" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F210" s="28">
-        <v>1</v>
-      </c>
-      <c r="G210" s="28"/>
-      <c r="H210" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I210" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J210" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K210" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L210" s="14">
-        <v>1</v>
-      </c>
-      <c r="O210" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B211" s="13"/>
-      <c r="C211" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D211" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E211" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F211" s="28">
-        <v>2</v>
-      </c>
-      <c r="G211" s="28"/>
-      <c r="H211" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I211" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J211" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K211" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L211" s="14">
-        <v>1</v>
-      </c>
-      <c r="O211" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E212" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F212" s="28">
-        <v>3</v>
-      </c>
-      <c r="G212" s="28"/>
-      <c r="H212" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I212" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J212" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K212" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L212" s="14">
-        <v>1</v>
-      </c>
-      <c r="O212" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B213" s="13"/>
-      <c r="C213" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D213" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F213" s="28">
-        <v>4</v>
-      </c>
-      <c r="G213" s="28"/>
-      <c r="H213" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I213" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J213" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K213" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L213" s="14">
-        <v>1</v>
-      </c>
-      <c r="O213" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B214" s="13"/>
-      <c r="C214" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D214" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E214" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F214" s="28">
-        <v>5</v>
-      </c>
-      <c r="G214" s="28"/>
-      <c r="H214" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I214" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J214" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K214" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L214" s="14">
-        <v>1</v>
-      </c>
-      <c r="O214" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P214" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B215" s="13"/>
-      <c r="C215" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D215" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E215" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F215" s="28">
-        <v>6</v>
-      </c>
-      <c r="G215" s="28"/>
-      <c r="H215" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I215" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J215" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K215" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L215" s="14">
-        <v>1</v>
-      </c>
-      <c r="O215" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P215" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D216" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E216" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="F216" s="28">
-        <v>7</v>
-      </c>
-      <c r="G216" s="28"/>
-      <c r="H216" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I216" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J216" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K216" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L216" s="14">
-        <v>1</v>
-      </c>
-      <c r="O216" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D217" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E217" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="F217" s="28">
-        <v>8</v>
-      </c>
-      <c r="G217" s="28"/>
-      <c r="H217" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I217" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J217" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K217" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L217" s="14">
-        <v>1</v>
-      </c>
-      <c r="O217" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D218" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E218" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F218" s="28">
-        <v>9</v>
-      </c>
-      <c r="G218" s="28"/>
-      <c r="H218" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I218" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J218" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K218" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L218" s="14">
-        <v>1</v>
-      </c>
-      <c r="O218" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P218" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D219" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E219" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="F219" s="28">
-        <v>10</v>
-      </c>
-      <c r="G219" s="28"/>
-      <c r="H219" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I219" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J219" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K219" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L219" s="14">
-        <v>1</v>
-      </c>
-      <c r="O219" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P219" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D220" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E220" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="F220" s="28">
-        <v>11</v>
-      </c>
-      <c r="G220" s="28"/>
-      <c r="H220" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I220" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="J220" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K220" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L220" s="14">
-        <v>1</v>
-      </c>
-      <c r="O220" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D221" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E221" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F221" s="28">
-        <v>12</v>
-      </c>
-      <c r="G221" s="28"/>
-      <c r="H221" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I221" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="J221" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K221" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L221" s="14">
-        <v>1</v>
-      </c>
-      <c r="O221" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B222" s="13"/>
-      <c r="C222" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D222" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E222" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F222" s="28">
-        <v>1</v>
-      </c>
-      <c r="G222" s="28"/>
-      <c r="H222" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I222" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J222" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K222" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L222" s="14">
-        <v>1</v>
-      </c>
-      <c r="O222" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D223" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E223" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F223" s="28">
-        <v>2</v>
-      </c>
-      <c r="G223" s="28"/>
-      <c r="H223" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I223" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J223" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K223" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L223" s="14">
-        <v>1</v>
-      </c>
-      <c r="O223" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D224" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E224" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F224" s="28">
-        <v>3</v>
-      </c>
-      <c r="G224" s="28"/>
-      <c r="H224" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I224" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J224" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K224" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L224" s="14">
-        <v>1</v>
-      </c>
-      <c r="O224" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B225" s="13"/>
-      <c r="C225" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D225" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E225" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F225" s="28">
-        <v>4</v>
-      </c>
-      <c r="G225" s="28"/>
-      <c r="H225" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I225" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J225" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K225" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L225" s="14">
-        <v>1</v>
-      </c>
-      <c r="O225" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B226" s="13"/>
-      <c r="C226" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D226" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E226" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F226" s="28">
-        <v>5</v>
-      </c>
-      <c r="G226" s="28"/>
-      <c r="H226" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I226" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J226" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K226" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L226" s="14">
-        <v>1</v>
-      </c>
-      <c r="O226" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="13">
-        <v>42736</v>
-      </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D227" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E227" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F227" s="28">
-        <v>6</v>
-      </c>
-      <c r="G227" s="28"/>
-      <c r="H227" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I227" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J227" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K227" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L227" s="14">
-        <v>1</v>
-      </c>
-      <c r="O227" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D231" s="41"/>
-    </row>
-    <row r="232" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D232" s="41"/>
-    </row>
-    <row r="233" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D233" s="41"/>
-    </row>
-    <row r="234" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D234" s="41"/>
-    </row>
-    <row r="235" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D235" s="41"/>
-    </row>
-    <row r="236" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236" s="41"/>
-    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A227" xr:uid="{00000000-0002-0000-0700-000001000000}">
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A200" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B227" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B200" xr:uid="{00000000-0002-0000-0700-000002000000}">
+      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F8" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>42736</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B8" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
